--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.816130.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.816130.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BAB001B-D1AD-4E67-A0CC-3BDE8C8382D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C0DB640-4DCA-4F63-BCE2-F0494195365C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-18T064856.479" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-02-24T063053.415" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="102">
   <si>
     <t>Do Ty</t>
   </si>
@@ -287,6 +287,33 @@
   </si>
   <si>
     <t>HEADSET REXUS GAMING VONIX F27</t>
+  </si>
+  <si>
+    <t>JK</t>
+  </si>
+  <si>
+    <t>CASH JOURNAL - IDR</t>
+  </si>
+  <si>
+    <t>OFFICE SUPPLIES EXPENSES</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>General Accounting</t>
+  </si>
+  <si>
+    <t>TSANTIKA</t>
+  </si>
+  <si>
+    <t>KUOTA &amp; PULSA MS ZHANG</t>
+  </si>
+  <si>
+    <t>PULPEN HITAM</t>
+  </si>
+  <si>
+    <t>SPIDOL KECIL SNOWMAN</t>
   </si>
   <si>
     <t>Column Total</t>
@@ -1141,7 +1168,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ16"/>
+  <dimension ref="A1:AZ19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2780,68 +2807,461 @@
       </c>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13">
+        <v>24001037</v>
+      </c>
+      <c r="D13">
+        <v>1201</v>
+      </c>
+      <c r="E13" s="1">
+        <v>45341</v>
+      </c>
       <c r="F13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G13">
-        <v>367.61</v>
+        <v>6.77</v>
       </c>
       <c r="H13">
-        <v>367.61</v>
+        <v>6.77</v>
+      </c>
+      <c r="I13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" t="s">
+        <v>55</v>
       </c>
       <c r="L13" s="2">
-        <v>5809099</v>
+        <v>107000</v>
       </c>
       <c r="N13" s="2">
-        <v>5809099</v>
-      </c>
-      <c r="AG13">
-        <v>312</v>
+        <v>107000</v>
+      </c>
+      <c r="O13" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>56</v>
+      </c>
+      <c r="R13" t="s">
+        <v>57</v>
+      </c>
+      <c r="S13">
+        <v>15803</v>
+      </c>
+      <c r="T13" t="s">
+        <v>58</v>
+      </c>
+      <c r="U13" t="s">
+        <v>59</v>
+      </c>
+      <c r="V13" t="s">
+        <v>92</v>
+      </c>
+      <c r="W13" t="s">
+        <v>93</v>
+      </c>
+      <c r="X13">
+        <v>2104023</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA13">
+        <v>1</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>45341</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP13">
+        <v>1201</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY13">
+        <v>816130</v>
+      </c>
+      <c r="AZ13">
+        <v>1201.8161299999999</v>
       </c>
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14">
+        <v>24001708</v>
+      </c>
+      <c r="D14">
+        <v>1201</v>
+      </c>
+      <c r="E14" s="1">
+        <v>45342</v>
+      </c>
       <c r="F14" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="G14">
-        <v>367.61</v>
+        <v>24.14</v>
       </c>
       <c r="H14">
-        <v>367.61</v>
+        <v>24.14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" t="s">
+        <v>55</v>
       </c>
       <c r="L14" s="2">
-        <v>5809099</v>
+        <v>381500</v>
       </c>
       <c r="N14" s="2">
-        <v>5809099</v>
+        <v>381500</v>
+      </c>
+      <c r="O14" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>56</v>
+      </c>
+      <c r="R14" t="s">
+        <v>57</v>
+      </c>
+      <c r="S14">
+        <v>15803</v>
+      </c>
+      <c r="T14" t="s">
+        <v>58</v>
+      </c>
+      <c r="U14" t="s">
+        <v>59</v>
+      </c>
+      <c r="V14" t="s">
+        <v>60</v>
+      </c>
+      <c r="W14" t="s">
+        <v>61</v>
+      </c>
+      <c r="X14">
+        <v>2104370</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA14">
+        <v>1</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>56</v>
       </c>
       <c r="AG14">
-        <v>312</v>
+        <v>20</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI14">
+        <v>57414183</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM14" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP14">
+        <v>1201</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>96</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX14">
+        <v>24001198</v>
+      </c>
+      <c r="AY14">
+        <v>816130</v>
+      </c>
+      <c r="AZ14">
+        <v>1201.8161299999999</v>
       </c>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15">
+        <v>24001730</v>
+      </c>
+      <c r="D15">
+        <v>1201</v>
+      </c>
+      <c r="E15" s="1">
+        <v>45344</v>
+      </c>
       <c r="F15" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="G15">
-        <v>367.61</v>
+        <v>3.69</v>
       </c>
       <c r="H15">
-        <v>367.61</v>
+        <v>3.69</v>
+      </c>
+      <c r="I15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" t="s">
+        <v>55</v>
       </c>
       <c r="L15" s="2">
-        <v>5809099</v>
+        <v>58200</v>
       </c>
       <c r="N15" s="2">
-        <v>5809099</v>
+        <v>58200</v>
+      </c>
+      <c r="O15" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>56</v>
+      </c>
+      <c r="R15" t="s">
+        <v>57</v>
+      </c>
+      <c r="S15">
+        <v>15803</v>
+      </c>
+      <c r="T15" t="s">
+        <v>58</v>
+      </c>
+      <c r="U15" t="s">
+        <v>59</v>
+      </c>
+      <c r="V15" t="s">
+        <v>60</v>
+      </c>
+      <c r="W15" t="s">
+        <v>61</v>
+      </c>
+      <c r="X15">
+        <v>2105133</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>45344</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA15">
+        <v>1</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>56</v>
       </c>
       <c r="AG15">
-        <v>312</v>
+        <v>12</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI15">
+        <v>57414183</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM15" s="1">
+        <v>45344</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP15">
+        <v>1201</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX15">
+        <v>24001240</v>
+      </c>
+      <c r="AY15">
+        <v>816130</v>
+      </c>
+      <c r="AZ15">
+        <v>1201.8161299999999</v>
       </c>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
-        <v>92</v>
+        <v>98</v>
+      </c>
+      <c r="G16">
+        <v>402.21</v>
+      </c>
+      <c r="H16">
+        <v>402.21</v>
+      </c>
+      <c r="L16" s="2">
+        <v>6355799</v>
+      </c>
+      <c r="N16" s="2">
+        <v>6355799</v>
+      </c>
+      <c r="AG16">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="17" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17">
+        <v>402.21</v>
+      </c>
+      <c r="H17">
+        <v>402.21</v>
+      </c>
+      <c r="L17" s="2">
+        <v>6355799</v>
+      </c>
+      <c r="N17" s="2">
+        <v>6355799</v>
+      </c>
+      <c r="AG17">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="18" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>100</v>
+      </c>
+      <c r="G18">
+        <v>402.21</v>
+      </c>
+      <c r="H18">
+        <v>402.21</v>
+      </c>
+      <c r="L18" s="2">
+        <v>6355799</v>
+      </c>
+      <c r="N18" s="2">
+        <v>6355799</v>
+      </c>
+      <c r="AG18">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="19" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.816130.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.816130.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C0DB640-4DCA-4F63-BCE2-F0494195365C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{84F9672B-F228-4C07-A2E8-0D9CF065C1F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-24T063053.415" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-03-03T063223.417" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="117">
   <si>
     <t>Do Ty</t>
   </si>
@@ -313,7 +313,52 @@
     <t>PULPEN HITAM</t>
   </si>
   <si>
+    <t>KERTAS TEBAL,KURSUS&amp;TRAINE STA</t>
+  </si>
+  <si>
     <t>SPIDOL KECIL SNOWMAN</t>
+  </si>
+  <si>
+    <t>CV. DIVA SARANA CHEMICAL</t>
+  </si>
+  <si>
+    <t>BELI HANSSOAP LEMON &amp; KARBON W</t>
+  </si>
+  <si>
+    <t>J8</t>
+  </si>
+  <si>
+    <t>JOURNAL KOREKSI</t>
+  </si>
+  <si>
+    <t>KOREKSI FREIGHT IN</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>SANTY</t>
+  </si>
+  <si>
+    <t>JE</t>
+  </si>
+  <si>
+    <t>Journal Entry</t>
+  </si>
+  <si>
+    <t>AMORTISASI BWI 12/12</t>
+  </si>
+  <si>
+    <t>RPA2</t>
+  </si>
+  <si>
+    <t>AMORTISASI HIGG 12/12</t>
+  </si>
+  <si>
+    <t>CHAT GPT+MS 365</t>
+  </si>
+  <si>
+    <t>TAGIHAN CC BU SANTI &amp; FLASHDIS</t>
   </si>
   <si>
     <t>Column Total</t>
@@ -1168,7 +1213,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ19"/>
+  <dimension ref="A1:AZ26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3067,28 +3112,28 @@
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="C15">
-        <v>24001730</v>
+        <v>24001046</v>
       </c>
       <c r="D15">
         <v>1201</v>
       </c>
       <c r="E15" s="1">
-        <v>45344</v>
+        <v>45343</v>
       </c>
       <c r="F15" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="G15">
-        <v>3.69</v>
+        <v>182.18</v>
       </c>
       <c r="H15">
-        <v>3.69</v>
+        <v>182.18</v>
       </c>
       <c r="I15" t="s">
         <v>55</v>
@@ -3097,10 +3142,10 @@
         <v>55</v>
       </c>
       <c r="L15" s="2">
-        <v>58200</v>
+        <v>2879000</v>
       </c>
       <c r="N15" s="2">
-        <v>58200</v>
+        <v>2879000</v>
       </c>
       <c r="O15" t="s">
         <v>56</v>
@@ -3121,16 +3166,16 @@
         <v>59</v>
       </c>
       <c r="V15" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="W15" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="X15">
-        <v>2105133</v>
+        <v>2105767</v>
       </c>
       <c r="Y15" s="1">
-        <v>45344</v>
+        <v>45349</v>
       </c>
       <c r="Z15" t="s">
         <v>56</v>
@@ -3150,26 +3195,17 @@
       <c r="AF15" t="s">
         <v>56</v>
       </c>
-      <c r="AG15">
-        <v>12</v>
-      </c>
       <c r="AH15" t="s">
         <v>56</v>
       </c>
-      <c r="AI15">
-        <v>57414183</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>67</v>
-      </c>
       <c r="AL15" t="s">
         <v>56</v>
       </c>
       <c r="AM15" s="1">
-        <v>45344</v>
+        <v>45343</v>
       </c>
       <c r="AN15" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="AO15" t="s">
         <v>63</v>
@@ -3189,8 +3225,8 @@
       <c r="AV15" t="s">
         <v>66</v>
       </c>
-      <c r="AX15">
-        <v>24001240</v>
+      <c r="AX15" t="s">
+        <v>56</v>
       </c>
       <c r="AY15">
         <v>816130</v>
@@ -3200,68 +3236,925 @@
       </c>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16">
+        <v>24001730</v>
+      </c>
+      <c r="D16">
+        <v>1201</v>
+      </c>
+      <c r="E16" s="1">
+        <v>45344</v>
+      </c>
       <c r="F16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16">
+        <v>3.69</v>
+      </c>
+      <c r="H16">
+        <v>3.69</v>
+      </c>
+      <c r="I16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" s="2">
+        <v>58200</v>
+      </c>
+      <c r="N16" s="2">
+        <v>58200</v>
+      </c>
+      <c r="O16" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>56</v>
+      </c>
+      <c r="R16" t="s">
+        <v>57</v>
+      </c>
+      <c r="S16">
+        <v>15803</v>
+      </c>
+      <c r="T16" t="s">
+        <v>58</v>
+      </c>
+      <c r="U16" t="s">
+        <v>59</v>
+      </c>
+      <c r="V16" t="s">
+        <v>60</v>
+      </c>
+      <c r="W16" t="s">
+        <v>61</v>
+      </c>
+      <c r="X16">
+        <v>2105133</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>45344</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA16">
+        <v>1</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG16">
+        <v>12</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI16">
+        <v>57414183</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM16" s="1">
+        <v>45344</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP16">
+        <v>1201</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR16" t="s">
         <v>98</v>
       </c>
-      <c r="G16">
-        <v>402.21</v>
-      </c>
-      <c r="H16">
-        <v>402.21</v>
-      </c>
-      <c r="L16" s="2">
-        <v>6355799</v>
-      </c>
-      <c r="N16" s="2">
-        <v>6355799</v>
-      </c>
-      <c r="AG16">
-        <v>344</v>
+      <c r="AU16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX16">
+        <v>24001240</v>
+      </c>
+      <c r="AY16">
+        <v>816130</v>
+      </c>
+      <c r="AZ16">
+        <v>1201.8161299999999</v>
       </c>
     </row>
-    <row r="17" spans="6:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17">
+        <v>24001756</v>
+      </c>
+      <c r="D17">
+        <v>1201</v>
+      </c>
+      <c r="E17" s="1">
+        <v>45349</v>
+      </c>
       <c r="F17" t="s">
         <v>99</v>
       </c>
       <c r="G17">
-        <v>402.21</v>
+        <v>50.62</v>
       </c>
       <c r="H17">
-        <v>402.21</v>
+        <v>50.62</v>
+      </c>
+      <c r="I17" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" t="s">
+        <v>55</v>
       </c>
       <c r="L17" s="2">
-        <v>6355799</v>
+        <v>800000</v>
       </c>
       <c r="N17" s="2">
-        <v>6355799</v>
+        <v>800000</v>
+      </c>
+      <c r="O17" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>56</v>
+      </c>
+      <c r="R17" t="s">
+        <v>57</v>
+      </c>
+      <c r="S17">
+        <v>15803</v>
+      </c>
+      <c r="T17" t="s">
+        <v>58</v>
+      </c>
+      <c r="U17" t="s">
+        <v>59</v>
+      </c>
+      <c r="V17" t="s">
+        <v>82</v>
+      </c>
+      <c r="W17" t="s">
+        <v>83</v>
+      </c>
+      <c r="X17">
+        <v>2105846</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>45349</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA17">
+        <v>1</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>56</v>
       </c>
       <c r="AG17">
-        <v>344</v>
+        <v>1</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI17">
+        <v>57341578</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL17" s="1">
+        <v>45349</v>
+      </c>
+      <c r="AM17" s="1">
+        <v>45349</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP17">
+        <v>1201</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX17">
+        <v>24001274</v>
+      </c>
+      <c r="AY17">
+        <v>816130</v>
+      </c>
+      <c r="AZ17">
+        <v>1201.8161299999999</v>
       </c>
     </row>
-    <row r="18" spans="6:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18">
+        <v>24001012</v>
+      </c>
+      <c r="D18">
+        <v>1201</v>
+      </c>
+      <c r="E18" s="1">
+        <v>45351</v>
+      </c>
       <c r="F18" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G18">
-        <v>402.21</v>
+        <v>44.3</v>
       </c>
       <c r="H18">
-        <v>402.21</v>
-      </c>
-      <c r="L18" s="2">
-        <v>6355799</v>
-      </c>
-      <c r="N18" s="2">
-        <v>6355799</v>
-      </c>
-      <c r="AG18">
-        <v>344</v>
+        <v>44.3</v>
+      </c>
+      <c r="I18" t="s">
+        <v>55</v>
+      </c>
+      <c r="O18" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>56</v>
+      </c>
+      <c r="R18" t="s">
+        <v>104</v>
+      </c>
+      <c r="T18" t="s">
+        <v>58</v>
+      </c>
+      <c r="U18" t="s">
+        <v>59</v>
+      </c>
+      <c r="V18" t="s">
+        <v>92</v>
+      </c>
+      <c r="W18" t="s">
+        <v>93</v>
+      </c>
+      <c r="X18">
+        <v>2107209</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>45352</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA18">
+        <v>8</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM18" s="1">
+        <v>45351</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>105</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>105</v>
+      </c>
+      <c r="AP18">
+        <v>1201</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY18">
+        <v>816130</v>
+      </c>
+      <c r="AZ18">
+        <v>1201.8161299999999</v>
       </c>
     </row>
-    <row r="19" spans="6:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19">
+        <v>4687244</v>
+      </c>
+      <c r="D19">
+        <v>1201</v>
+      </c>
+      <c r="E19" s="1">
+        <v>45351</v>
+      </c>
       <c r="F19" t="s">
-        <v>101</v>
+        <v>108</v>
+      </c>
+      <c r="G19">
+        <v>281.25</v>
+      </c>
+      <c r="H19">
+        <v>281.25</v>
+      </c>
+      <c r="I19" t="s">
+        <v>55</v>
+      </c>
+      <c r="O19" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>56</v>
+      </c>
+      <c r="R19" t="s">
+        <v>104</v>
+      </c>
+      <c r="T19" t="s">
+        <v>58</v>
+      </c>
+      <c r="U19" t="s">
+        <v>59</v>
+      </c>
+      <c r="V19" t="s">
+        <v>92</v>
+      </c>
+      <c r="W19" t="s">
+        <v>93</v>
+      </c>
+      <c r="X19">
+        <v>2105794</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>45349</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA19">
+        <v>1</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM19" s="1">
+        <v>45351</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP19">
+        <v>1201</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY19">
+        <v>816130</v>
+      </c>
+      <c r="AZ19">
+        <v>1201.8161299999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20">
+        <v>4687245</v>
+      </c>
+      <c r="D20">
+        <v>1201</v>
+      </c>
+      <c r="E20" s="1">
+        <v>45351</v>
+      </c>
+      <c r="F20" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20">
+        <v>118.7</v>
+      </c>
+      <c r="H20">
+        <v>118.7</v>
+      </c>
+      <c r="I20" t="s">
+        <v>55</v>
+      </c>
+      <c r="O20" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>56</v>
+      </c>
+      <c r="R20" t="s">
+        <v>104</v>
+      </c>
+      <c r="T20" t="s">
+        <v>58</v>
+      </c>
+      <c r="U20" t="s">
+        <v>59</v>
+      </c>
+      <c r="V20" t="s">
+        <v>92</v>
+      </c>
+      <c r="W20" t="s">
+        <v>93</v>
+      </c>
+      <c r="X20">
+        <v>2105795</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>45349</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA20">
+        <v>1</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM20" s="1">
+        <v>45351</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP20">
+        <v>1201</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY20">
+        <v>816130</v>
+      </c>
+      <c r="AZ20">
+        <v>1201.8161299999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21">
+        <v>24001050</v>
+      </c>
+      <c r="D21">
+        <v>1201</v>
+      </c>
+      <c r="E21" s="1">
+        <v>45351</v>
+      </c>
+      <c r="F21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21">
+        <v>29.71</v>
+      </c>
+      <c r="H21">
+        <v>29.71</v>
+      </c>
+      <c r="I21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J21" t="s">
+        <v>55</v>
+      </c>
+      <c r="L21" s="2">
+        <v>469542</v>
+      </c>
+      <c r="N21" s="2">
+        <v>469542</v>
+      </c>
+      <c r="O21" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>56</v>
+      </c>
+      <c r="R21" t="s">
+        <v>57</v>
+      </c>
+      <c r="S21">
+        <v>15803</v>
+      </c>
+      <c r="T21" t="s">
+        <v>58</v>
+      </c>
+      <c r="U21" t="s">
+        <v>59</v>
+      </c>
+      <c r="V21" t="s">
+        <v>92</v>
+      </c>
+      <c r="W21" t="s">
+        <v>93</v>
+      </c>
+      <c r="X21">
+        <v>2106437</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>45351</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA21">
+        <v>1</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM21" s="1">
+        <v>45351</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP21">
+        <v>1201</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY21">
+        <v>816130</v>
+      </c>
+      <c r="AZ21">
+        <v>1201.8161299999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22">
+        <v>24001057</v>
+      </c>
+      <c r="D22">
+        <v>1201</v>
+      </c>
+      <c r="E22" s="1">
+        <v>45351</v>
+      </c>
+      <c r="F22" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22">
+        <v>13.47</v>
+      </c>
+      <c r="H22">
+        <v>13.47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>55</v>
+      </c>
+      <c r="J22" t="s">
+        <v>55</v>
+      </c>
+      <c r="L22" s="2">
+        <v>212848</v>
+      </c>
+      <c r="N22" s="2">
+        <v>212848</v>
+      </c>
+      <c r="O22" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>56</v>
+      </c>
+      <c r="R22" t="s">
+        <v>57</v>
+      </c>
+      <c r="S22">
+        <v>15803</v>
+      </c>
+      <c r="T22" t="s">
+        <v>58</v>
+      </c>
+      <c r="U22" t="s">
+        <v>59</v>
+      </c>
+      <c r="V22" t="s">
+        <v>92</v>
+      </c>
+      <c r="W22" t="s">
+        <v>93</v>
+      </c>
+      <c r="X22">
+        <v>2106437</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>45351</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA22">
+        <v>1</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM22" s="1">
+        <v>45351</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP22">
+        <v>1201</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY22">
+        <v>816130</v>
+      </c>
+      <c r="AZ22">
+        <v>1201.8161299999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>113</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1122.44</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1122.44</v>
+      </c>
+      <c r="L23" s="2">
+        <v>10717189</v>
+      </c>
+      <c r="N23" s="2">
+        <v>10717189</v>
+      </c>
+      <c r="AG23">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>114</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1122.44</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1122.44</v>
+      </c>
+      <c r="L24" s="2">
+        <v>10717189</v>
+      </c>
+      <c r="N24" s="2">
+        <v>10717189</v>
+      </c>
+      <c r="AG24">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>115</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1122.44</v>
+      </c>
+      <c r="H25" s="2">
+        <v>1122.44</v>
+      </c>
+      <c r="L25" s="2">
+        <v>10717189</v>
+      </c>
+      <c r="N25" s="2">
+        <v>10717189</v>
+      </c>
+      <c r="AG25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="26" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
